--- a/data/trans_bre/IP18A04-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP18A04-Estudios-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 13,91</t>
+          <t>-4,85; 14,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 12,43</t>
+          <t>-6,59; 11,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 4,02</t>
+          <t>-10,13; 5,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,13; 111,52</t>
+          <t>-25,68; 118,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,26; 125,97</t>
+          <t>-32,94; 111,83</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-87,55; 140,97</t>
+          <t>-88,08; 193,79</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,81; -0,57</t>
+          <t>-6,45; -0,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 2,85</t>
+          <t>-4,01; 3,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 2,2</t>
+          <t>-4,67; 2,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-57,67; -6,52</t>
+          <t>-54,25; -1,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,87; 26,44</t>
+          <t>-29,27; 33,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-36,47; 24,35</t>
+          <t>-37,1; 22,79</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 7,72</t>
+          <t>-3,83; 7,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 7,51</t>
+          <t>-4,15; 7,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 7,24</t>
+          <t>-4,38; 7,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,63; 135,37</t>
+          <t>-35,98; 137,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-35,18; 80,8</t>
+          <t>-28,82; 81,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-31,78; 103,13</t>
+          <t>-37,55; 112,12</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 1,49</t>
+          <t>-3,82; 1,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 3,13</t>
+          <t>-2,58; 3,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 1,95</t>
+          <t>-3,15; 2,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-33,53; 16,26</t>
+          <t>-32,24; 17,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-20,31; 28,14</t>
+          <t>-18,78; 31,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 22,46</t>
+          <t>-27,59; 25,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP18A04-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP18A04-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-2,43</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,99%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,43%</t>
         </is>
       </c>
     </row>
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,56; 14,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,04; 12,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,88; 4,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,95; 121,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,98; 124,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,53; 194,34</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>-34,46%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>-4,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-33,43%</t>
+          <t>-11,34%</t>
         </is>
       </c>
     </row>
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 14,39</t>
+          <t>-6,74; -0,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 11,95</t>
+          <t>-4,36; 3,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 5,06</t>
+          <t>-4,25; 2,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,68; 118,52</t>
+          <t>-57,06; -6,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-32,94; 111,83</t>
+          <t>-31,46; 29,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-88,08; 193,79</t>
+          <t>-34,76; 21,67</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,51</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-34,46%</t>
+          <t>25,85%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-4,94%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,34%</t>
+          <t>15,52%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,45; -0,36</t>
+          <t>-3,65; 7,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,01; 3,37</t>
+          <t>-4,33; 7,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 2,13</t>
+          <t>-4,05; 7,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-54,25; -1,29</t>
+          <t>-33,27; 143,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,27; 33,07</t>
+          <t>-30,95; 86,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,1; 22,79</t>
+          <t>-34,38; 98,75</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,49</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,85%</t>
+          <t>-11,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,52%</t>
+          <t>-6,23%</t>
         </is>
       </c>
     </row>
@@ -882,127 +882,46 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 7,65</t>
+          <t>-4,26; 1,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,15; 7,42</t>
+          <t>-2,43; 3,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 7,28</t>
+          <t>-3,54; 1,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-35,98; 137,85</t>
+          <t>-34,48; 15,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 81,34</t>
+          <t>-18,13; 35,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,55; 112,12</t>
+          <t>-30,29; 21,53</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,23</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,63</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-11,58%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>3,68%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-6,23%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,82; 1,61</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,58; 3,51</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,15; 2,17</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-32,24; 17,78</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-18,78; 31,98</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-27,59; 25,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
